--- a/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板.xlsx
+++ b/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板.xlsx
@@ -59,7 +59,7 @@
     <t>{.channel}</t>
   </si>
   <si>
-    <t>{.country}</t>
+    <t>{.countries}</t>
   </si>
   <si>
     <t>{.name}</t>
@@ -790,11 +790,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="39">
@@ -924,6 +924,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -931,30 +938,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,38 +958,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,22 +979,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,10 +999,63 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1094,13 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,25 +1112,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,55 +1172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,13 +1202,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,37 +1250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,6 +1760,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1786,6 +1825,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1794,54 +1842,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1850,10 +1850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1862,19 +1862,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,124 +1886,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2016,10 +2016,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2034,13 +2034,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2358,13 +2358,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
@@ -2429,8 +2429,8 @@
     <cellStyle name="常规 10 6" xfId="54"/>
     <cellStyle name="常规 5" xfId="55"/>
     <cellStyle name="超链接 2" xfId="56"/>
-    <cellStyle name="超链接 14" xfId="57"/>
-    <cellStyle name="常规 148" xfId="58"/>
+    <cellStyle name="常规 148" xfId="57"/>
+    <cellStyle name="超链接 14" xfId="58"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板.xlsx
+++ b/lsj-study-excel/lsj-study-excel-biz/src/main/resources/temp/excel/联邮通报价模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t xml:space="preserve">       联邮通报价目录表</t>
   </si>
@@ -65,7 +65,7 @@
     <t>{.name}</t>
   </si>
   <si>
-    <t>{.salesArea}</t>
+    <t>{.region}</t>
   </si>
   <si>
     <t>{.timely}</t>
@@ -74,13 +74,16 @@
     <t>{.desc}</t>
   </si>
   <si>
+    <t>{.hyperlink}</t>
+  </si>
+  <si>
+    <t>{vatRateIndex}</t>
+  </si>
+  <si>
+    <t>VAT税率参照表</t>
+  </si>
+  <si>
     <t>点击进入</t>
-  </si>
-  <si>
-    <t>{vatRateIndex}</t>
-  </si>
-  <si>
-    <t>VAT税率参照表</t>
   </si>
   <si>
     <t>{abnormalIndex}</t>
@@ -129,72 +132,22 @@
 RMB/票</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>0-500G</t>
-  </si>
-  <si>
-    <t>最大尺寸限制：
-60 * 40* 40CM
-最小尺寸限制：16*11CM</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>无服务邮编编码 前两位： 97、98、00，POBOX，军事地址：字符里有armee或者armée 及 字符里有或邮编为00100和00200</t>
-  </si>
-  <si>
-    <t>501-3000G</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>0-100G</t>
-  </si>
-  <si>
-    <t>≤60*40*35CM</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>1. 无服务邮编 前3位：
-006-009，967-969，995-999等；具体有无服务以能否打印面单为准。
-2. Tophatter平台客户请选择TOPHATTER-3PL优先-普货（B5)下单！</t>
-  </si>
-  <si>
-    <t>101-200G</t>
-  </si>
-  <si>
-    <t>201-340G</t>
-  </si>
-  <si>
-    <t>341-450G</t>
-  </si>
-  <si>
-    <t>451-700G</t>
-  </si>
-  <si>
-    <t>701-1000G</t>
-  </si>
-  <si>
-    <t>1001-2000G</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>0-3000G</t>
-  </si>
-  <si>
-    <t>最长边60CM，
-体积不超过0.031M³</t>
-  </si>
-  <si>
-    <t>6-8</t>
+    <t>{.country}</t>
+  </si>
+  <si>
+    <t>{.weightSegment}</t>
+  </si>
+  <si>
+    <t>{.expressFreight}</t>
+  </si>
+  <si>
+    <t>{.registrationFee}</t>
+  </si>
+  <si>
+    <t>{.sizeLimit}</t>
+  </si>
+  <si>
+    <t>{.productRemark}</t>
   </si>
   <si>
     <t>价格使用说明</t>
@@ -681,82 +634,7 @@
     <t>VAT税率</t>
   </si>
   <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>捷克共和国</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>瑞典</t>
+    <t>{.taxRate}</t>
   </si>
   <si>
     <t>不规则的包裹类型如下： 
@@ -791,8 +669,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
@@ -872,12 +750,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -913,6 +791,61 @@
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -924,27 +857,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -958,9 +870,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -974,54 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1030,15 +916,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,20 +942,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1094,72 +972,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1172,19 +984,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1056,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,42 +1128,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1391,43 +1269,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.349986266670736"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.349986266670736"/>
       </left>
       <right style="thin">
@@ -1739,6 +1580,30 @@
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1760,6 +1625,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1793,39 +1691,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1850,10 +1715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1862,148 +1727,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2012,7 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2021,7 +1886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2085,238 +1950,175 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="9" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
@@ -2337,13 +2139,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="36" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2355,16 +2157,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="55" applyFont="1" applyAlignment="1">
@@ -2867,7 +2666,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2883,136 +2682,136 @@
   </cols>
   <sheetData>
     <row r="1" ht="29.25" spans="1:8">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" ht="72" customHeight="1" spans="1:8">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:8">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="102"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" ht="33" spans="1:8">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="88" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:8">
-      <c r="A5" s="110" t="s">
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="111" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="32" customHeight="1" spans="1:8">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113" t="s">
-        <v>18</v>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="38" customHeight="1" spans="1:8">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" ht="61" customHeight="1" spans="1:8">
-      <c r="A8" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
+      <c r="A8" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" ht="16.5" spans="1:8">
       <c r="A9" s="11"/>
@@ -3021,10 +2820,10 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="115"/>
+      <c r="G9" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3039,7 +2838,6 @@
   <hyperlinks>
     <hyperlink ref="H6" location="VAT税率参照表!A1" display="点击进入"/>
     <hyperlink ref="H7" location="异常件说明!A1" display="点击进入"/>
-    <hyperlink ref="H5" location="'联邮通优先挂号-普货（PX）'!A1" display="点击进入"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3050,10 +2848,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3069,7 +2867,7 @@
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3088,7 +2886,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:8">
@@ -3096,23 +2894,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" ht="33" spans="1:8">
@@ -3120,562 +2918,407 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
-      <c r="A5" s="21">
+    <row r="5" ht="33" spans="1:8">
+      <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:8">
+      <c r="A7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:8">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="24">
+      <c r="B8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:8">
+      <c r="A9" s="33">
+        <v>2</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" ht="33" spans="1:8">
+      <c r="A10" s="33">
+        <v>3</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="24">
-        <v>20</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" ht="33" spans="1:8">
-      <c r="A6" s="21"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="30">
-        <v>43</v>
-      </c>
-      <c r="E6" s="30">
-        <v>23</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:8">
-      <c r="A7" s="32">
-        <v>2</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="34">
-        <v>90</v>
-      </c>
-      <c r="E7" s="34">
-        <v>24</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:8">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="34">
-        <v>90</v>
-      </c>
-      <c r="E8" s="34">
-        <v>24</v>
-      </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:8">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="34">
-        <v>100</v>
-      </c>
-      <c r="E9" s="34">
-        <v>28</v>
-      </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:8">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="34">
-        <v>103</v>
-      </c>
-      <c r="E10" s="34">
-        <v>28</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" ht="16.5" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33" t="s">
+      <c r="A11" s="37">
+        <v>4</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="34">
-        <v>122</v>
-      </c>
-      <c r="E11" s="34">
-        <v>41</v>
-      </c>
-      <c r="F11" s="39"/>
+      <c r="C11" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" ht="33" spans="1:8">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="34">
-        <v>102</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:8">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:8">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:8">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:8">
+      <c r="A16" s="37">
+        <v>5</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:8">
+      <c r="A17" s="41"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:8">
+      <c r="A18" s="30"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:8">
+      <c r="A19" s="33">
+        <v>6</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:8">
+      <c r="A20" s="33">
+        <v>7</v>
+      </c>
+      <c r="B20" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="37"/>
-    </row>
-    <row r="13" ht="33" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="34">
-        <v>102</v>
-      </c>
-      <c r="E13" s="34">
-        <v>61</v>
-      </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" ht="66" spans="1:8">
-      <c r="A14" s="44">
-        <v>3</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="46">
-        <v>54</v>
-      </c>
-      <c r="E14" s="46">
-        <v>18</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:8">
-      <c r="A16" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:8">
-      <c r="A17" s="52">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:8">
-      <c r="A18" s="55">
-        <v>2</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-    </row>
-    <row r="19" ht="33" spans="1:8">
-      <c r="A19" s="55">
-        <v>3</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="C20" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:8">
-      <c r="A20" s="59">
-        <v>4</v>
-      </c>
-      <c r="B20" s="60" t="s">
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:8">
+      <c r="A21" s="33">
+        <v>8</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C21" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:8">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:8">
+      <c r="A22" s="37">
+        <v>9</v>
+      </c>
+      <c r="B22" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:8">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" ht="16.5" spans="1:8">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
     </row>
     <row r="24" ht="16.5" spans="1:8">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="33">
+        <v>9</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>68</v>
+      </c>
       <c r="C24" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
+        <v>69</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" ht="16.5" spans="1:8">
-      <c r="A25" s="59">
-        <v>5</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="66">
+        <v>10</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
+      <c r="C25" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" ht="16.5" spans="1:8">
-      <c r="A26" s="63"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" ht="16.5" spans="1:8">
-      <c r="A27" s="52"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" ht="16.5" spans="1:8">
-      <c r="A28" s="55">
-        <v>6</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="77" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" ht="16.5" spans="1:8">
-      <c r="A29" s="55">
-        <v>7</v>
-      </c>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" ht="16.5" spans="1:8">
+      <c r="A30" s="33">
+        <v>11</v>
+      </c>
+      <c r="B30" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:8">
-      <c r="A30" s="55">
-        <v>8</v>
-      </c>
-      <c r="B30" s="76" t="s">
+      <c r="C30" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+    </row>
+    <row r="31" ht="16.5" spans="1:8">
+      <c r="A31" s="74">
+        <v>12</v>
+      </c>
+      <c r="B31" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:8">
-      <c r="A31" s="59">
-        <v>9</v>
-      </c>
-      <c r="B31" s="80" t="s">
+      <c r="C31" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:8">
-      <c r="A32" s="52"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:8">
-      <c r="A33" s="55">
-        <v>9</v>
-      </c>
-      <c r="B33" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:8">
-      <c r="A34" s="87">
-        <v>10</v>
-      </c>
-      <c r="B34" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:8">
-      <c r="A35" s="89"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:8">
-      <c r="A36" s="89"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:8">
-      <c r="A37" s="89"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:8">
-      <c r="A38" s="90"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="91" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:8">
-      <c r="A39" s="55">
-        <v>11</v>
-      </c>
-      <c r="B39" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="93"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="94"/>
-      <c r="H39" s="94"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:8">
-      <c r="A40" s="95">
-        <v>12</v>
-      </c>
-      <c r="B40" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="41">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="C19:H19"/>
@@ -3691,42 +3334,23 @@
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F13"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G13"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId2" display="通用查询网址：&#10;http://track.4px.com/&#10;https://www.17track.net/zh-cn"/>
+    <hyperlink ref="C30" r:id="rId2" display="通用查询网址：&#10;http://track.4px.com/&#10;https://www.17track.net/zh-cn"/>
     <hyperlink ref="H2" location="价格表目录!A1" display="返回目录"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3738,13 +3362,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="15.75" customWidth="1"/>
@@ -3758,304 +3382,18 @@
         <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="1:3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="6">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="1:3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="1:3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="1:3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="1:3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="1:3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="1:3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0.25</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4082,10 +3420,10 @@
   <sheetData>
     <row r="1" ht="199" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:2">
